--- a/autoConditions/train2Block3.xlsx
+++ b/autoConditions/train2Block3.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainaudio/03_kikita.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/03_kikita.wav</t>
+          <t>trainaudio/09_tipata.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/08_tipako.wav</t>
+          <t>trainaudio/16_kotapi.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainaudio/19_papipi.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/02_kitipi.wav</t>
+          <t>trainaudio/17_kotako.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainaudio/04_kitoti.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
     </row>
@@ -533,24 +533,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainaudio/25_tapapi.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/04_kitoti.wav</t>
+          <t>trainaudio/08_tipako.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block3.xlsx
+++ b/autoConditions/train2Block3.xlsx
@@ -449,108 +449,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/03_kikita.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/09_tipata.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainingaudio/26_kapako1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/19_papipi.wav</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/17_kotako.wav</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/04_kitoti.wav</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainaudio/07_pitapi.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/08_tipako.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block3.xlsx
+++ b/autoConditions/train2Block3.xlsx
@@ -449,108 +449,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito3.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/26_kapako1.wav</t>
+          <t>trainingaudio/21_papika1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/22_kakoki1.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/14_pokoto1.wav</t>
+          <t>trainingaudio/06_titoka3.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/05_titopo2.wav</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/23_patoko1.wav</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa1.wav</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainingaudio/12_pokika3.wav</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
     </row>
